--- a/src/test/resources/Searched_input_data.xlsx
+++ b/src/test/resources/Searched_input_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E421E07-4A3F-4FD6-93BF-49243D9A0A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B9446EF-537F-4A07-8611-32E0F8A9A4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Searched Input Data</t>
   </si>
@@ -46,19 +46,22 @@
     <t>HELPSSS</t>
   </si>
   <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>..</t>
+    <t>&gt;c</t>
+  </si>
+  <si>
+    <t>&lt;NN</t>
+  </si>
+  <si>
+    <t>..T</t>
   </si>
   <si>
     <t>Apple</t>
   </si>
   <si>
     <t xml:space="preserve">  Help 2</t>
+  </si>
+  <si>
+    <t>Hey there !!!</t>
   </si>
   <si>
     <t>Subject</t>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,6 +536,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -542,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B34BA31-2A63-4C3E-BBFE-99304250A445}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -556,44 +564,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Searched_input_data.xlsx
+++ b/src/test/resources/Searched_input_data.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B9446EF-537F-4A07-8611-32E0F8A9A4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20265AD2-9EFB-46B3-A982-6F2D77B0188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Article" sheetId="3" r:id="rId3"/>
+    <sheet name="Article2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Searched Input Data</t>
   </si>
@@ -98,13 +100,61 @@
   </si>
   <si>
     <t>wmenrkjwenrjkwnerjknewrkjwenrkjwernkjwernkjwenrkjwenrweknrkwjen</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokerbr</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokeres</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokerbe</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokerca</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokercom</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokerde</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokerfi</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokerhu</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokernl</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokerpl</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokeruk</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokerua</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/ggpokerro</t>
+  </si>
+  <si>
+    <t>https://nsus.my.site.com/pokerok</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +169,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,9 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -551,7 +608,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,4 +668,193 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD8152B-D8AE-4FC3-80B4-3FA4A29A6C01}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C581D1E3-10D3-4A3F-85BC-086B6BEA6A5D}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{2AD25588-6B16-48CD-9285-7CB85BE61CB8}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{5649730E-72F2-4C24-B108-B99027AFE95B}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{F060DD27-7CDA-4DFD-BF74-A285A5257891}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{865238F7-3137-4798-84D9-8B31C7D85F7E}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{E2C9F098-0E03-4373-99E1-57D947F7607F}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{B4F4E3A8-BE5C-42B3-9D58-0F64CDF3C716}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{D6593E80-B519-4353-ACF0-686ED5EEFEC8}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{06A56E24-BAEF-4EDE-80F0-07E7A74E10C2}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{48F20B37-D7C4-4524-B2DE-C172835765AB}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{6992507B-6129-47F3-97BF-79775ACC53FA}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{1C069E8B-B298-4B0E-B315-898D38FE27A9}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{99148A13-5DDD-457C-9237-F50052385598}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{652F6CA6-E2AC-40BF-8562-44A4A9AADDC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCA96CB-7116-4120-B024-20FD7CCB4573}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A3:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CDF15DEE-6E93-4B66-92BD-4CDA88A6543A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Searched_input_data.xlsx
+++ b/src/test/resources/Searched_input_data.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27916"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20265AD2-9EFB-46B3-A982-6F2D77B0188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B35CA53-D2E4-4DDF-8A05-1ABDD1B956BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Article" sheetId="3" r:id="rId3"/>
-    <sheet name="Article2" sheetId="4" r:id="rId4"/>
+    <sheet name="URL" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="3_URL" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Searched Input Data</t>
   </si>
@@ -148,6 +150,48 @@
   </si>
   <si>
     <t> </t>
+  </si>
+  <si>
+    <t>https://help.clubgg.net</t>
+  </si>
+  <si>
+    <t>https://pt-br.help.ggpoker.com</t>
+  </si>
+  <si>
+    <t>https://es.help.ggpoker.com</t>
+  </si>
+  <si>
+    <t>https://help.ggpoker.be</t>
+  </si>
+  <si>
+    <t>https://help.ggpoker.ca</t>
+  </si>
+  <si>
+    <t>https://help.ggpoker.com</t>
+  </si>
+  <si>
+    <t>https://help.ggpoker.de</t>
+  </si>
+  <si>
+    <t>https://help.ggpoker.nl</t>
+  </si>
+  <si>
+    <t>https://help-pl1.ggpoker.eu</t>
+  </si>
+  <si>
+    <t>https://help.ggpoker.co.uk</t>
+  </si>
+  <si>
+    <t>https://help-ua.ggpoker.com</t>
+  </si>
+  <si>
+    <t>https://help.playgg.ro</t>
+  </si>
+  <si>
+    <t>https://help.pokerok174.com</t>
+  </si>
+  <si>
+    <t>https://help.clubgg.net/s/?language=en_US</t>
   </si>
 </sst>
 </file>
@@ -675,7 +719,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -768,17 +812,17 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C581D1E3-10D3-4A3F-85BC-086B6BEA6A5D}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{2AD25588-6B16-48CD-9285-7CB85BE61CB8}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{5649730E-72F2-4C24-B108-B99027AFE95B}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{F060DD27-7CDA-4DFD-BF74-A285A5257891}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{865238F7-3137-4798-84D9-8B31C7D85F7E}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{E2C9F098-0E03-4373-99E1-57D947F7607F}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{B4F4E3A8-BE5C-42B3-9D58-0F64CDF3C716}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{D6593E80-B519-4353-ACF0-686ED5EEFEC8}"/>
+    <hyperlink ref="A15" r:id="rId4" xr:uid="{652F6CA6-E2AC-40BF-8562-44A4A9AADDC5}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{99148A13-5DDD-457C-9237-F50052385598}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{1C069E8B-B298-4B0E-B315-898D38FE27A9}"/>
+    <hyperlink ref="A12" r:id="rId7" xr:uid="{6992507B-6129-47F3-97BF-79775ACC53FA}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{48F20B37-D7C4-4524-B2DE-C172835765AB}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{06A56E24-BAEF-4EDE-80F0-07E7A74E10C2}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{48F20B37-D7C4-4524-B2DE-C172835765AB}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{6992507B-6129-47F3-97BF-79775ACC53FA}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{1C069E8B-B298-4B0E-B315-898D38FE27A9}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{99148A13-5DDD-457C-9237-F50052385598}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{652F6CA6-E2AC-40BF-8562-44A4A9AADDC5}"/>
+    <hyperlink ref="A9" r:id="rId10" xr:uid="{D6593E80-B519-4353-ACF0-686ED5EEFEC8}"/>
+    <hyperlink ref="A8" r:id="rId11" xr:uid="{B4F4E3A8-BE5C-42B3-9D58-0F64CDF3C716}"/>
+    <hyperlink ref="A7" r:id="rId12" xr:uid="{E2C9F098-0E03-4373-99E1-57D947F7607F}"/>
+    <hyperlink ref="A6" r:id="rId13" xr:uid="{865238F7-3137-4798-84D9-8B31C7D85F7E}"/>
+    <hyperlink ref="A5" r:id="rId14" xr:uid="{F060DD27-7CDA-4DFD-BF74-A285A5257891}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -789,7 +833,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A3:A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,56 +848,182 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
+      <c r="A16" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{CDF15DEE-6E93-4B66-92BD-4CDA88A6543A}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{ABFD06DF-154A-4A68-9238-71F5F73117C6}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{FEDD8472-3F17-4292-BA5F-D90F0730CAB5}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{97143DDE-E241-4E52-853F-A1DEEA18E3FF}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{A1602B86-EDD1-4952-9A4A-55CF6E548A9C}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{C3C01F58-6369-4BE9-850B-C67ABA112358}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{5304FDDC-AD51-413E-AB04-C67715BE8DA2}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{E29D07C5-62EF-4656-AEE7-CFEAE90C329E}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{A2F174C5-EE0F-4CC2-AF12-3E2C45F050B6}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{81A66DD6-4D0D-4751-9415-DE08BFDB7825}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{0FA775E4-8864-4D85-8C3D-56B4C579604C}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{30111D14-F517-4178-AAB6-3006437C15D4}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{C9A41B89-9BEF-4CA4-8ADE-2952653E0ED4}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{2F0A1E6C-5F25-42FB-B402-02D9E1ADE313}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{4E7D239C-CD59-4485-9549-6400CA70A5A0}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{E63E3829-00F8-4B63-A27F-56BA7DC6DF4D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF092EB-194E-4DEC-9539-9606E0FC34B2}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C7A1CB16-8734-41D2-AFD0-52F33D3C847A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{D99BBAE9-F414-49FA-B18D-33A10AF1025E}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{FE196F78-57BB-40CD-9451-0CB91B218051}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4575CD97-04BC-4228-9660-02D6EFAEB62C}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{6F82CF34-C423-4FEE-AB40-C18CCC81FB9A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{627B30FC-C404-488C-B755-C7008BB97F7C}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{306BE365-CB98-4703-9B63-D1141B43FDE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
